--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/17_Bingöl_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/17_Bingöl_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE3C0E9-3D3A-4490-B2E4-B9CC1D0484BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A50B2-631B-426C-9430-3415BF481D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{7387D605-729E-49CC-B0B7-E69E2723ADDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{910C3647-F2D3-40E3-B6F3-CF6E6A94B556}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{EC6894BC-9937-4EDB-8002-BE7E13937ED7}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1000C5EC-7C30-428C-8E45-5BE9A79459D7}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{754FB16F-8537-462F-9C76-7FA19310B354}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{67098034-37A1-4B55-908A-0CD20CB55713}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A9F24C22-0F65-47DA-B045-89BBE9FC09E2}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{933500BA-DE1C-4FF5-87CD-0BAE89A05770}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{96531655-0A2B-48F5-9EF5-120824D64C5B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DDA9DED0-E8C3-4626-AD17-A0AB19BE5F51}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CC96535F-0206-441A-8C5A-127D4A0B2A40}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EFF6DC6D-BF81-4CCE-A405-DBD0F735F90B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{84C61D0B-E3C4-4B3F-98CA-3D3BC2D9329C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{9ED5015B-87F4-4BF8-AAAA-D5FF3C43D3EE}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{AA6CD87E-5F6C-49AA-94F4-502FE8740B1D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5971DA9A-392F-4200-B3A3-4366336479D8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747E35C-8CD3-459C-9FF5-052DF0D8CFF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830416F2-27DB-447B-8E86-1B422135DB00}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2516,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AB6EA9-6A33-41F5-9EC8-9C938FD789FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD0BCA-6320-44B2-8AD1-AB563727DE45}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3748,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9607FF-A2E4-4221-912A-023F7844C866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87E8BD-0876-4CF0-BC58-9A2BB8FD1309}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -4980,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C1770-E72B-492B-AFCE-043443869F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4E632-624B-40DF-8625-E192AF4E0591}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6204,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB547B1B-9C14-4FF9-9B46-1444C5DF89C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C0B34E-40BD-4889-804C-4C97A8EEB9BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7443,7 +7443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896B0F3-E754-4260-BFCB-EA884DDE1719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9CCD62-103A-42B4-AA6E-B10D767FBE87}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8681,7 +8681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E572FE0E-A70F-4667-B51A-6F9446DEF94C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F04D969-A585-47B1-92B0-8EB13BCEDA3F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9919,7 +9919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A5D1DC-DFB1-4ED8-A155-106C7D1A2510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1837D7B6-6EC7-4376-ACE9-1C90729B496F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11157,7 +11157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1767E1-5979-471F-9810-91F3FC778AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C325E5-3F5A-4300-93CD-B1C8394EFE3C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12395,7 +12395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD29C3-52D2-480C-86C5-A981E771C3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631B5469-7F5B-4871-88A7-AE17338D56CB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13631,7 +13631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F1F43-1E56-4E83-97F3-9DB99954BABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FA397-E9E2-48E8-BA9D-7BA8701C388A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14865,7 +14865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB687B8B-0FD8-467D-B3BF-3813CD653D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC00319-1A74-41C4-B6EA-BEE184593A72}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
